--- a/Для семплинга/Настройка семплирования с разделением train_test.xlsx
+++ b/Для семплинга/Настройка семплирования с разделением train_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Уроки\Магистратура\Курсовая\mag_diploma\Для семплинга\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE94BF-DE9D-4BAE-8C57-229DBCEBDB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F5C115-FA51-44AD-A5DC-2287ADCDF978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Дисперсия h</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>corr sigma</t>
+  </si>
+  <si>
+    <t>0.294</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,53 +391,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B2" s="1">
-        <v>1E-8</v>
+        <v>2E-8</v>
       </c>
       <c r="C2">
-        <v>0.43</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D2">
-        <v>0.87</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="E2">
-        <v>0.67</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B3" s="1">
-        <v>1E-8</v>
+        <v>1.4999999999999999E-8</v>
       </c>
       <c r="C3">
-        <v>0.39300000000000002</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D3">
-        <v>0.87</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="E3">
-        <v>0.66</v>
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4.9999999999999998E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B4" s="1">
         <v>1E-8</v>
       </c>
       <c r="C4">
-        <v>0.309</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D4">
         <v>0.77</v>
       </c>
       <c r="E4">
-        <v>0.71</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -442,16 +445,16 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B5" s="1">
-        <v>1E-8</v>
+        <v>8.9999999999999995E-9</v>
       </c>
       <c r="C5">
-        <v>0.255</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D5">
-        <v>0.78600000000000003</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="E5">
-        <v>0.76100000000000001</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -459,87 +462,36 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="1">
-        <v>2E-8</v>
-      </c>
-      <c r="C6">
-        <v>0.2</v>
+        <v>8.0000000000000005E-9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>0.80700000000000005</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="E6">
-        <v>0.79300000000000004</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2E-8</v>
-      </c>
-      <c r="C7">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="D7">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="E7">
-        <v>0.80400000000000005</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8.0000000000000002E-8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2E-8</v>
-      </c>
-      <c r="C8">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="E8">
-        <v>0.72799999999999998</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.9999999999999997E-8</v>
-      </c>
-      <c r="C9">
-        <v>0.157</v>
-      </c>
-      <c r="D9">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="E9">
-        <v>0.84199999999999997</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.9999999999999997E-8</v>
-      </c>
-      <c r="C10">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="E10">
-        <v>0.8</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Для семплинга/Настройка семплирования с разделением train_test.xlsx
+++ b/Для семплинга/Настройка семплирования с разделением train_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Уроки\Магистратура\Курсовая\mag_diploma\Для семплинга\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F5C115-FA51-44AD-A5DC-2287ADCDF978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE7209-7F25-4020-9A91-4D0B4F77D8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Дисперсия h</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>0.294</t>
+  </si>
+  <si>
+    <t>1.1e-07</t>
+  </si>
+  <si>
+    <t>8.8e-09</t>
   </si>
 </sst>
 </file>
@@ -364,7 +370,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,8 +481,15 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.32300000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
